--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2366.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2366.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8519024198855366</v>
+        <v>1.01129674911499</v>
       </c>
       <c r="B1">
-        <v>1.692891299417853</v>
+        <v>2.128483295440674</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.807652950286865</v>
       </c>
       <c r="D1">
-        <v>1.96327841286079</v>
+        <v>1.028786659240723</v>
       </c>
       <c r="E1">
-        <v>1.207600392294165</v>
+        <v>1.100803017616272</v>
       </c>
     </row>
   </sheetData>
